--- a/Final DBMSattainment AY 2022-23.xlsx
+++ b/Final DBMSattainment AY 2022-23.xlsx
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -202,7 +205,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
